--- a/statistic.xlsx
+++ b/statistic.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhura\Desktop\AaSD_lab_3_var_21-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6DBDDB-1AB1-4960-A7D9-3917BF81281B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,7 +164,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -209,6 +208,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -330,7 +330,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8376-441B-95AD-5108CDCF83E7}"/>
             </c:ext>
@@ -422,7 +422,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8376-441B-95AD-5108CDCF83E7}"/>
             </c:ext>
@@ -514,7 +514,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8376-441B-95AD-5108CDCF83E7}"/>
             </c:ext>
@@ -606,7 +606,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8376-441B-95AD-5108CDCF83E7}"/>
             </c:ext>
@@ -698,7 +698,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-8376-441B-95AD-5108CDCF83E7}"/>
             </c:ext>
@@ -790,7 +790,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-8376-441B-95AD-5108CDCF83E7}"/>
             </c:ext>
@@ -805,11 +805,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="579989976"/>
-        <c:axId val="579982776"/>
+        <c:axId val="163231992"/>
+        <c:axId val="163226896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="579989976"/>
+        <c:axId val="163231992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +852,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579982776"/>
+        <c:crossAx val="163226896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -860,7 +860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="579982776"/>
+        <c:axId val="163226896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +911,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579989976"/>
+        <c:crossAx val="163231992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -925,6 +925,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -992,7 +993,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1038,6 +1039,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1135,31 +1137,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>247346</c:v>
+                  <c:v>248341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>989256</c:v>
+                  <c:v>991251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2225033</c:v>
+                  <c:v>2228028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24769968</c:v>
+                  <c:v>24946988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>154624190</c:v>
+                  <c:v>155170265</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>618830689</c:v>
+                  <c:v>620681656</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2474803176</c:v>
+                  <c:v>2482726624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A81D-407A-9792-2620FB35A677}"/>
             </c:ext>
@@ -1251,7 +1253,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A81D-407A-9792-2620FB35A677}"/>
             </c:ext>
@@ -1319,31 +1321,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>24999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>49999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>99999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A81D-407A-9792-2620FB35A677}"/>
             </c:ext>
@@ -1435,7 +1437,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A81D-407A-9792-2620FB35A677}"/>
             </c:ext>
@@ -1527,7 +1529,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A81D-407A-9792-2620FB35A677}"/>
             </c:ext>
@@ -1619,7 +1621,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A81D-407A-9792-2620FB35A677}"/>
             </c:ext>
@@ -1634,11 +1636,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="574935864"/>
-        <c:axId val="574936944"/>
+        <c:axId val="163220624"/>
+        <c:axId val="163225328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="574935864"/>
+        <c:axId val="163220624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,7 +1683,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574936944"/>
+        <c:crossAx val="163225328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1689,7 +1691,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="574936944"/>
+        <c:axId val="163225328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,7 +1742,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574935864"/>
+        <c:crossAx val="163220624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,6 +1756,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1821,7 +1824,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1867,6 +1870,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1988,7 +1992,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A251-46C8-AC02-8042B36EB5C7}"/>
             </c:ext>
@@ -2080,7 +2084,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A251-46C8-AC02-8042B36EB5C7}"/>
             </c:ext>
@@ -2172,7 +2176,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A251-46C8-AC02-8042B36EB5C7}"/>
             </c:ext>
@@ -2264,7 +2268,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A251-46C8-AC02-8042B36EB5C7}"/>
             </c:ext>
@@ -2356,7 +2360,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A251-46C8-AC02-8042B36EB5C7}"/>
             </c:ext>
@@ -2448,7 +2452,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A251-46C8-AC02-8042B36EB5C7}"/>
             </c:ext>
@@ -2463,11 +2467,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="603298216"/>
-        <c:axId val="603302536"/>
+        <c:axId val="163228072"/>
+        <c:axId val="163228856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="603298216"/>
+        <c:axId val="163228072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2510,7 +2514,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603302536"/>
+        <c:crossAx val="163228856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2518,7 +2522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603302536"/>
+        <c:axId val="163228856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2569,7 +2573,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603298216"/>
+        <c:crossAx val="163228072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2583,6 +2587,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4337,7 +4342,7 @@
         <xdr:cNvPr id="10" name="Диаграмма 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A671371-4D16-334D-65F8-05474EDDA213}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A671371-4D16-334D-65F8-05474EDDA213}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4373,7 +4378,7 @@
         <xdr:cNvPr id="11" name="Диаграмма 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4FF80E-C204-C846-711C-0AD5EB020A15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A4FF80E-C204-C846-711C-0AD5EB020A15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4409,7 +4414,7 @@
         <xdr:cNvPr id="12" name="Диаграмма 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FC35CE-AF22-EFA8-F40F-90B1465B06DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2FC35CE-AF22-EFA8-F40F-90B1465B06DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4431,51 +4436,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8239A8F2-7A87-43CC-B02A-F1D5A958BAAC}" name="Таблица3" displayName="Таблица3" ref="B1:I7" totalsRowShown="0">
-  <autoFilter ref="B1:I7" xr:uid="{8239A8F2-7A87-43CC-B02A-F1D5A958BAAC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="B1:I7" totalsRowShown="0">
+  <autoFilter ref="B1:I7"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{17FDBECD-28DE-4528-8BA2-33484C599A32}" name=" Size_x000a_Vectors ."/>
-    <tableColumn id="2" xr3:uid="{4512B571-6AA2-4FDD-8AC3-EAAA498BD1A5}" name="1000"/>
-    <tableColumn id="3" xr3:uid="{E61D0705-7C20-44F5-B25A-A3E3027424AE}" name="2000"/>
-    <tableColumn id="4" xr3:uid="{4FFF4000-CA55-45F5-A2AF-CCB3C3C5AC42}" name="3000"/>
-    <tableColumn id="5" xr3:uid="{FFF00303-FBB2-4809-800F-3A66CAE7F778}" name="10000"/>
-    <tableColumn id="6" xr3:uid="{99600384-6510-4235-B4E7-DE9224F8D0B2}" name="25000"/>
-    <tableColumn id="7" xr3:uid="{CE1C6F95-8044-45A4-B0C9-77A6A859EBDA}" name="50000"/>
-    <tableColumn id="8" xr3:uid="{52B0D605-A707-4957-84FC-3D0A21E88EFF}" name="100000"/>
+    <tableColumn id="1" name=" Size_x000a_Vectors ."/>
+    <tableColumn id="2" name="1000"/>
+    <tableColumn id="3" name="2000"/>
+    <tableColumn id="4" name="3000"/>
+    <tableColumn id="5" name="10000"/>
+    <tableColumn id="6" name="25000"/>
+    <tableColumn id="7" name="50000"/>
+    <tableColumn id="8" name="100000"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4B68D5C-364D-44F2-B854-EEC782DEB631}" name="Таблица35" displayName="Таблица35" ref="B8:I14" totalsRowShown="0">
-  <autoFilter ref="B8:I14" xr:uid="{C4B68D5C-364D-44F2-B854-EEC782DEB631}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица35" displayName="Таблица35" ref="B8:I14" totalsRowShown="0">
+  <autoFilter ref="B8:I14"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DBF02096-8E7A-448C-BD4F-FA5865555595}" name=" Size_x000a_Vectors ."/>
-    <tableColumn id="2" xr3:uid="{CAD2C90B-876C-4760-89C1-DA647404A815}" name="1000"/>
-    <tableColumn id="3" xr3:uid="{2D04EB94-1BBA-480D-A455-C3EB43A552C0}" name="2000"/>
-    <tableColumn id="4" xr3:uid="{98367476-9F04-431E-9D81-ADBD4565D12D}" name="3000"/>
-    <tableColumn id="5" xr3:uid="{CCDA7555-57A6-4AEE-A759-1F7EF05C9DFE}" name="10000"/>
-    <tableColumn id="6" xr3:uid="{11AF5CA3-EB82-4A91-A815-3CE4F53A5E29}" name="25000"/>
-    <tableColumn id="7" xr3:uid="{23EDE461-70D1-4F76-ADB6-400C25944DC1}" name="50000"/>
-    <tableColumn id="8" xr3:uid="{59AEC060-45B6-40DB-8F3E-17FF9D054FAE}" name="100000"/>
+    <tableColumn id="1" name=" Size_x000a_Vectors ."/>
+    <tableColumn id="2" name="1000"/>
+    <tableColumn id="3" name="2000"/>
+    <tableColumn id="4" name="3000"/>
+    <tableColumn id="5" name="10000"/>
+    <tableColumn id="6" name="25000"/>
+    <tableColumn id="7" name="50000"/>
+    <tableColumn id="8" name="100000"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ECA9C6CD-A85D-4B92-854A-B65FB6F9E6F1}" name="Таблица356" displayName="Таблица356" ref="B15:I21" totalsRowShown="0">
-  <autoFilter ref="B15:I21" xr:uid="{ECA9C6CD-A85D-4B92-854A-B65FB6F9E6F1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица356" displayName="Таблица356" ref="B15:I21" totalsRowShown="0">
+  <autoFilter ref="B15:I21"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A4BA370D-2671-44BA-BD2A-950E02CDEBF2}" name=" Size_x000a_Vectors ."/>
-    <tableColumn id="2" xr3:uid="{1E5D4DA0-0A82-45A6-928F-0BB9346E440B}" name="1000"/>
-    <tableColumn id="3" xr3:uid="{9033553B-285F-46A7-BDEE-88F356BD10E9}" name="2000"/>
-    <tableColumn id="4" xr3:uid="{16C87817-393C-4109-B735-383C70ABE165}" name="3000"/>
-    <tableColumn id="5" xr3:uid="{0F384405-752A-4C45-AE33-34ABDD0DF286}" name="10000"/>
-    <tableColumn id="6" xr3:uid="{2B1EC400-358C-432F-A6C1-59544C709C06}" name="25000"/>
-    <tableColumn id="7" xr3:uid="{582079CB-279F-4269-B9BA-3AB852E42E68}" name="50000"/>
-    <tableColumn id="8" xr3:uid="{39829C7B-DB97-4E68-A77C-4F0337AA223F}" name="100000"/>
+    <tableColumn id="1" name=" Size_x000a_Vectors ."/>
+    <tableColumn id="2" name="1000"/>
+    <tableColumn id="3" name="2000"/>
+    <tableColumn id="4" name="3000"/>
+    <tableColumn id="5" name="10000"/>
+    <tableColumn id="6" name="25000"/>
+    <tableColumn id="7" name="50000"/>
+    <tableColumn id="8" name="100000"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4743,22 +4748,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -4787,33 +4792,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2">
-        <v>247346</v>
+        <v>248341</v>
       </c>
       <c r="D2">
-        <v>989256</v>
+        <v>991251</v>
       </c>
       <c r="E2">
-        <v>2225033</v>
+        <v>2228028</v>
       </c>
       <c r="F2">
-        <v>24769968</v>
+        <v>24946988</v>
       </c>
       <c r="G2">
-        <v>154624190</v>
+        <v>155170265</v>
       </c>
       <c r="H2">
-        <v>618830689</v>
+        <v>620681656</v>
       </c>
       <c r="I2">
-        <v>2474803176</v>
+        <v>2482726624</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -4839,33 +4844,33 @@
         <v>2474803176</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1999</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2999</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>24999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>49999</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>99999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -4891,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -4917,7 +4922,7 @@
         <v>4999950000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -4943,7 +4948,7 @@
         <v>4999950000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -4972,7 +4977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -4998,7 +5003,7 @@
         <v>3750252009</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -5024,7 +5029,7 @@
         <v>2474803176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -5050,7 +5055,7 @@
         <v>199997</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -5076,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -5102,7 +5107,7 @@
         <v>4999950000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -5128,7 +5133,7 @@
         <v>4999950000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -5157,7 +5162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>8</v>
       </c>
@@ -5183,7 +5188,7 @@
         <v>3224283</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -5209,7 +5214,7 @@
         <v>1562141</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -5235,7 +5240,7 @@
         <v>3401710</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -5261,7 +5266,7 @@
         <v>1650855</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -5287,7 +5292,7 @@
         <v>3094870</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>13</v>
       </c>
